--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170B16C-A792-4034-9CC3-DC0867BE034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AA733D-9310-4011-88C2-0327F7CB40B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28080" yWindow="6345" windowWidth="16290" windowHeight="12105" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Enemy" sheetId="2" r:id="rId2"/>
+    <sheet name="Round" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +312,78 @@
   </si>
   <si>
     <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARATROOPER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOMBCAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HELICOPTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACKDELAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACKRANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAMETHROWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1221,4 +1295,1593 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CFB178-60C6-42BA-9A7C-03EB8A68EE9C}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>270</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E089036-B500-4741-BD5D-60098B606228}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Enemy!A2</f>
+        <v>SWORD</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Enemy!A3</f>
+        <v>GUN</v>
+      </c>
+      <c r="D1" t="str">
+        <f>Enemy!A4</f>
+        <v>CAR</v>
+      </c>
+      <c r="E1" t="str">
+        <f>Enemy!A5</f>
+        <v>PARATROOPER</v>
+      </c>
+      <c r="F1" t="str">
+        <f>Enemy!A6</f>
+        <v>BOMBCAR</v>
+      </c>
+      <c r="G1" t="str">
+        <f>Enemy!A7</f>
+        <v>FLAMETHROWER</v>
+      </c>
+      <c r="H1" t="str">
+        <f>Enemy!A8</f>
+        <v>TANK</v>
+      </c>
+      <c r="I1" t="str">
+        <f>Enemy!A9</f>
+        <v>HELICOPTER</v>
+      </c>
+      <c r="J1" t="str">
+        <f>Enemy!A10</f>
+        <v>ROBOT</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <f>B2*20+C2*50+D2*100+E2*60+F2*150+G2*130+H2*180+I2*100+J2*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>900</v>
+      </c>
+      <c r="M2">
+        <f>L2-K2</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K39" si="0">B3*20+C3*50+D3*100+E3*60+F3*150+G3*130+H3*180+I3*100+J3*1000</f>
+        <v>1500</v>
+      </c>
+      <c r="L3">
+        <v>1400</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M42" si="1">L3-K3</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L4">
+        <v>1900</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="L5">
+        <v>2400</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="L6">
+        <v>2900</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="L7">
+        <v>3600</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>4600</v>
+      </c>
+      <c r="L8">
+        <v>4300</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>225</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="L9">
+        <v>5000</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>250</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>6700</v>
+      </c>
+      <c r="L10">
+        <v>6500</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>275</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="L11">
+        <v>8000</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>9300</v>
+      </c>
+      <c r="L12">
+        <v>9500</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>325</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>10600</v>
+      </c>
+      <c r="L13">
+        <v>11000</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>350</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>11900</v>
+      </c>
+      <c r="L14">
+        <v>12500</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>375</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L15">
+        <v>14000</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>400</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+      <c r="L16">
+        <v>15500</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>425</v>
+      </c>
+      <c r="C17">
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>16700</v>
+      </c>
+      <c r="L17">
+        <v>17000</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>450</v>
+      </c>
+      <c r="C18">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>18300</v>
+      </c>
+      <c r="L18">
+        <v>20000</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>475</v>
+      </c>
+      <c r="C19">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>19900</v>
+      </c>
+      <c r="L19">
+        <v>21500</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>500</v>
+      </c>
+      <c r="C20">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>22800</v>
+      </c>
+      <c r="L20">
+        <v>25500</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>525</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>24660</v>
+      </c>
+      <c r="L21">
+        <v>27000</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>550</v>
+      </c>
+      <c r="C22">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>26670</v>
+      </c>
+      <c r="L22">
+        <v>28500</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>575</v>
+      </c>
+      <c r="C23">
+        <v>102</v>
+      </c>
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>28530</v>
+      </c>
+      <c r="L23">
+        <v>30000</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>600</v>
+      </c>
+      <c r="C24">
+        <v>108</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>30390</v>
+      </c>
+      <c r="L24">
+        <v>31500</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>625</v>
+      </c>
+      <c r="C25">
+        <v>114</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>32250</v>
+      </c>
+      <c r="L25">
+        <v>33000</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>650</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>55</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>34110</v>
+      </c>
+      <c r="L26">
+        <v>34500</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>675</v>
+      </c>
+      <c r="C27">
+        <v>126</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>37920</v>
+      </c>
+      <c r="L27">
+        <v>36000</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>-1920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>700</v>
+      </c>
+      <c r="C28">
+        <v>132</v>
+      </c>
+      <c r="D28">
+        <v>95</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>40140</v>
+      </c>
+      <c r="L28">
+        <v>38500</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>-1640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>725</v>
+      </c>
+      <c r="C29">
+        <v>138</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>42360</v>
+      </c>
+      <c r="L29">
+        <v>41000</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>-1360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>750</v>
+      </c>
+      <c r="C30">
+        <v>144</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>75</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>45580</v>
+      </c>
+      <c r="L30">
+        <v>44500</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>-1080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>775</v>
+      </c>
+      <c r="C31">
+        <v>150</v>
+      </c>
+      <c r="D31">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>80</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>32</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>48000</v>
+      </c>
+      <c r="L31">
+        <v>46000</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>800</v>
+      </c>
+      <c r="C32">
+        <v>156</v>
+      </c>
+      <c r="D32">
+        <v>115</v>
+      </c>
+      <c r="E32">
+        <v>85</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>34</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>50570</v>
+      </c>
+      <c r="L32">
+        <v>50000</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>-570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>825</v>
+      </c>
+      <c r="C33">
+        <v>162</v>
+      </c>
+      <c r="D33">
+        <v>120</v>
+      </c>
+      <c r="E33">
+        <v>90</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>36</v>
+      </c>
+      <c r="H33">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>52990</v>
+      </c>
+      <c r="L33">
+        <v>51500</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>-1490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>850</v>
+      </c>
+      <c r="C34">
+        <v>168</v>
+      </c>
+      <c r="D34">
+        <v>125</v>
+      </c>
+      <c r="E34">
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <v>24</v>
+      </c>
+      <c r="I34">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>55410</v>
+      </c>
+      <c r="L34">
+        <v>57500</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>875</v>
+      </c>
+      <c r="C35">
+        <v>174</v>
+      </c>
+      <c r="D35">
+        <v>130</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>26</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <f>B35*20+C35*50+D35*100+E35*60+F35*150+G35*130+H35*180+I35*100+J35*1000</f>
+        <v>62830</v>
+      </c>
+      <c r="L35">
+        <v>59000</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>-3830</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>900</v>
+      </c>
+      <c r="C36">
+        <v>180</v>
+      </c>
+      <c r="D36">
+        <v>135</v>
+      </c>
+      <c r="E36">
+        <v>105</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>42</v>
+      </c>
+      <c r="H36">
+        <v>28</v>
+      </c>
+      <c r="I36">
+        <v>22</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <f>B36*20+C36*50+D36*100+E36*60+F36*150+G36*130+H36*180+I36*100+J36*1000</f>
+        <v>68250</v>
+      </c>
+      <c r="L36">
+        <v>68000</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>925</v>
+      </c>
+      <c r="C37">
+        <v>186</v>
+      </c>
+      <c r="D37">
+        <v>140</v>
+      </c>
+      <c r="E37">
+        <v>110</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>44</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>24</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <f>B37*20+C37*50+D37*100+E37*60+F37*150+G37*130+H37*180+I37*100+J37*1000</f>
+        <v>73820</v>
+      </c>
+      <c r="L37">
+        <v>68000</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>-5820</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>950</v>
+      </c>
+      <c r="C38">
+        <v>192</v>
+      </c>
+      <c r="D38">
+        <v>145</v>
+      </c>
+      <c r="E38">
+        <v>115</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>46</v>
+      </c>
+      <c r="H38">
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <v>26</v>
+      </c>
+      <c r="J38">
+        <v>14</v>
+      </c>
+      <c r="K38">
+        <f>B38*20+C38*50+D38*100+E38*60+F38*150+G38*130+H38*180+I38*100+J38*1000</f>
+        <v>79240</v>
+      </c>
+      <c r="L38">
+        <v>80000</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>975</v>
+      </c>
+      <c r="C39">
+        <v>198</v>
+      </c>
+      <c r="D39">
+        <v>150</v>
+      </c>
+      <c r="E39">
+        <v>120</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>48</v>
+      </c>
+      <c r="H39">
+        <v>34</v>
+      </c>
+      <c r="I39">
+        <v>28</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>84660</v>
+      </c>
+      <c r="L39">
+        <v>82000</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>-2660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1000</v>
+      </c>
+      <c r="C40">
+        <v>204</v>
+      </c>
+      <c r="D40">
+        <v>155</v>
+      </c>
+      <c r="E40">
+        <v>125</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>36</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>20</v>
+      </c>
+      <c r="K40">
+        <f>B40*20+C40*50+D40*100+E40*60+F40*150+G40*130+H40*180+I40*100+J40*1000</f>
+        <v>90080</v>
+      </c>
+      <c r="L40">
+        <v>95000</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1025</v>
+      </c>
+      <c r="C41">
+        <v>210</v>
+      </c>
+      <c r="D41">
+        <v>160</v>
+      </c>
+      <c r="E41">
+        <v>130</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>52</v>
+      </c>
+      <c r="H41">
+        <v>38</v>
+      </c>
+      <c r="I41">
+        <v>32</v>
+      </c>
+      <c r="J41">
+        <v>23</v>
+      </c>
+      <c r="K41">
+        <f>B41*20+C41*50+D41*100+E41*60+F41*150+G41*130+H41*180+I41*100+J41*1000</f>
+        <v>95500</v>
+      </c>
+      <c r="L41">
+        <v>92000</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>-3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AA733D-9310-4011-88C2-0327F7CB40B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919FF49-F208-400E-8644-5896B4069FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28080" yWindow="6345" windowWidth="16290" windowHeight="12105" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,9 +87,6 @@
     <t>CAHINSAW</t>
   </si>
   <si>
-    <t>GRANADE LAUNCHER</t>
-  </si>
-  <si>
     <t>SPACE LASER</t>
   </si>
   <si>
@@ -384,6 +381,64 @@
   </si>
   <si>
     <t>VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A drive-by favorite, the uzi is an affordable, fuuly automatic solution to all your semi-automatic problems.</t>
+  </si>
+  <si>
+    <t>Rednecks and zombie slayers agree, shotguns are always a good decision. Don’t forget… shop smart, shop S-mart.</t>
+  </si>
+  <si>
+    <t>You’re standard automatic rifle. Accurate and powerful. A step above that cute lil’ uzi.</t>
+  </si>
+  <si>
+    <t>A ballsier, automatic version of the combat shotgun. For when you really need to call down the rain.</t>
+  </si>
+  <si>
+    <t>Perfect for getting rid of termites, hilarious WWII reenactments with friends, or even when your son’s little league game runs long. The flame thrower. Don’t leave home without it.</t>
+  </si>
+  <si>
+    <t>When Sylvester stalone needs to cut down row after row of Vietcong soldiers and emerge with nothing but stainless steel abs and the sweat on his brow, you better believe he brings his machine gun.</t>
+  </si>
+  <si>
+    <t>“There’s a chainsaw? Sweet!” - You</t>
+  </si>
+  <si>
+    <t>Perfect for launching grenades.</t>
+  </si>
+  <si>
+    <t>This baby focuses a satellite mounted laser at your feeble enemies and promptly deatomizes them.</t>
+  </si>
+  <si>
+    <t>Handheld tele-geo-dynamics manipulating oscillator generator capable of knocking down troops and damaging vehicles.</t>
+  </si>
+  <si>
+    <t>A gun so big it overlaps the buy button.</t>
+  </si>
+  <si>
+    <t>This giant fan has a slowing effect that will stop those puny swordmen right in their trakcs. LOL!</t>
+  </si>
+  <si>
+    <t>This beastbox initiates minor tremors causing foot soldiers to fall over and armored units to take damage.</t>
+  </si>
+  <si>
+    <t>Known by scientists as the “Magnificant Wallopping Van De Graaff Machine”, the tesla tower delivers lethally concentrated bolts of electricity at a short range.</t>
+  </si>
+  <si>
+    <t>Fires heat seeking missiles that damage all units within it’s blast radius.</t>
+  </si>
+  <si>
+    <t>The M6 Laser Tower fires a very powerful blast of energy at the toughest enemy on the screen.</t>
+  </si>
+  <si>
+    <t>Flamer Joe likes to set people on fire.</t>
+  </si>
+  <si>
+    <t>Generates a protective shield that cuts all damage taken by a percentage.</t>
+  </si>
+  <si>
+    <t>GRENADE LAUNCHER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,19 +819,19 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -788,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -800,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -823,19 +878,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -849,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>300</v>
       </c>
       <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -875,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>2000</v>
       </c>
       <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -901,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>5000</v>
       </c>
       <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -927,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>4000</v>
       </c>
       <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -953,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>7500</v>
       </c>
       <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -979,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>11000</v>
       </c>
       <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1005,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <v>5000</v>
       </c>
       <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1025,25 +1080,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <v>10000</v>
       </c>
       <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
         <v>54</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>55</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1051,25 +1106,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>20000</v>
       </c>
       <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1077,25 +1132,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>7000</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
         <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1103,25 +1158,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>30000</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
         <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1129,22 +1184,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <v>2000</v>
       </c>
       <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" t="s">
         <v>64</v>
-      </c>
-      <c r="O15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1152,19 +1207,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -1175,25 +1230,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E17">
         <v>4000</v>
       </c>
       <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
         <v>67</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>68</v>
-      </c>
-      <c r="K17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1201,25 +1256,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E18">
         <v>6000</v>
       </c>
       <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
         <v>70</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
         <v>71</v>
-      </c>
-      <c r="M18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1227,22 +1282,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <v>8000</v>
       </c>
       <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
         <v>73</v>
-      </c>
-      <c r="J19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1250,25 +1305,25 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="E20">
         <v>5000</v>
       </c>
       <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s">
         <v>75</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>76</v>
-      </c>
-      <c r="K20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1276,19 +1331,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>3000</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1309,30 +1364,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1355,7 +1410,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1378,7 +1433,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1401,7 +1456,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -1424,7 +1479,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1447,7 +1502,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -1470,7 +1525,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -1493,7 +1548,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -1516,7 +1571,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>270</v>
@@ -1547,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E089036-B500-4741-BD5D-60098B606228}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +1614,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="str">
         <f>Enemy!A2</f>
@@ -1598,7 +1653,7 @@
         <v>ROBOT</v>
       </c>
       <c r="K1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1635,7 +1690,7 @@
         <v>1400</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M42" si="1">L3-K3</f>
+        <f t="shared" ref="M3:M41" si="1">L3-K3</f>
         <v>-100</v>
       </c>
     </row>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919FF49-F208-400E-8644-5896B4069FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EAC525-BF3C-4BDB-AFE1-08BEA19ACD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="Enemy" sheetId="2" r:id="rId2"/>
-    <sheet name="Round" sheetId="3" r:id="rId3"/>
+    <sheet name="Supporter" sheetId="4" r:id="rId3"/>
+    <sheet name="Round" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,6 +441,52 @@
   <si>
     <t>GRENADE LAUNCHER</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probablity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUNMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPAIRMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE WALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiplyUpgradeCost</t>
+  </si>
+  <si>
+    <t>maxUpgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPAIR HOUSE</t>
   </si>
 </sst>
 </file>
@@ -805,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1599,6 +1646,149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFB3850-CEFD-4F4C-A73F-40139B177D46}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.7</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>800</v>
+      </c>
+      <c r="J4">
+        <v>2.5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E089036-B500-4741-BD5D-60098B606228}">
   <dimension ref="A1:M41"/>
   <sheetViews>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EAC525-BF3C-4BDB-AFE1-08BEA19ACD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1CD011-D660-478C-BC6F-5FB72A0F42C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-30345" yWindow="5070" windowWidth="26640" windowHeight="14940" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,9 +162,6 @@
     <t>16;1;22;700</t>
   </si>
   <si>
-    <t>6;1;10;1000</t>
-  </si>
-  <si>
     <t>25;5;70;450</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>8;2;20;800</t>
   </si>
   <si>
-    <t>20;1;27;1000</t>
-  </si>
-  <si>
     <t>3;1;7;1800</t>
   </si>
   <si>
@@ -246,36 +240,21 @@
     <t>0.04;0.01;0.08;700</t>
   </si>
   <si>
-    <t>0;20;140;500</t>
-  </si>
-  <si>
-    <t>60;5;90;2000</t>
-  </si>
-  <si>
     <t>2;2;10;2000</t>
   </si>
   <si>
     <t>90;10;170;2000</t>
   </si>
   <si>
-    <t>40;10;140;1600</t>
-  </si>
-  <si>
     <t>0.8;0.2;2;2000</t>
   </si>
   <si>
     <t>3;1;7;3000</t>
   </si>
   <si>
-    <t>85;10;175;2000</t>
-  </si>
-  <si>
     <t>9;5;34;5000</t>
   </si>
   <si>
-    <t>0;1;5;2000</t>
-  </si>
-  <si>
     <t>0.04;0.02;0.14;1500</t>
   </si>
   <si>
@@ -487,6 +466,70 @@
   </si>
   <si>
     <t>REPAIR HOUSE</t>
+  </si>
+  <si>
+    <t>1;0;1;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;0;20;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;0.5;5;1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;0;6;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;0;100;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30;1.5;40.5;1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80;0;80;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150;0;150;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;0;2;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12;0;12;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;1.5;30;2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2;0.3;4.2;1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.55;0.3;5.25;2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0.2;2.4;500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;10;60;2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,7 +583,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -852,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,24 +933,25 @@
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="15" width="15.75" customWidth="1"/>
+    <col min="4" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -925,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -939,6 +1012,12 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -951,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <v>300</v>
@@ -965,6 +1044,12 @@
       <c r="H3" t="s">
         <v>34</v>
       </c>
+      <c r="I3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -977,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>2000</v>
@@ -988,8 +1073,14 @@
       <c r="H4" t="s">
         <v>36</v>
       </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>129</v>
+      </c>
+      <c r="M4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1003,19 +1094,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>5000</v>
       </c>
       <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
-        <v>40</v>
+      <c r="I5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1029,19 +1123,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>4000</v>
       </c>
       <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
+      <c r="M6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1055,19 +1152,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>7500</v>
       </c>
       <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
         <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1081,19 +1181,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>11000</v>
       </c>
       <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
+      <c r="I8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1107,19 +1210,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>5000</v>
       </c>
       <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1127,25 +1233,28 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>10000</v>
       </c>
       <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1159,19 +1268,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>20000</v>
       </c>
       <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" t="s">
         <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1185,19 +1297,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>7000</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1211,19 +1326,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>30000</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1237,16 +1358,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1260,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -1283,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>4000</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1309,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>6000</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1335,16 +1456,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E19">
         <v>8000</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1358,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>5000</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1384,17 +1505,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>3000</v>
       </c>
       <c r="N21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F2:P21">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=";0;">
+      <formula>NOT(ISERROR(SEARCH(";0;",F2)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text=";0;">
+      <formula>ISERROR(SEARCH(";0;",F2))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1411,30 +1540,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1457,7 +1586,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1480,7 +1609,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1503,7 +1632,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -1526,7 +1655,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1549,7 +1678,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -1572,7 +1701,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -1595,7 +1724,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -1618,7 +1747,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>270</v>
@@ -1649,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFB3850-CEFD-4F4C-A73F-40139B177D46}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1660,37 +1789,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
-      </c>
-      <c r="G1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1698,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1727,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1747,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1770,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1804,7 +1933,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B1" t="str">
         <f>Enemy!A2</f>
@@ -1843,7 +1972,7 @@
         <v>ROBOT</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1CD011-D660-478C-BC6F-5FB72A0F42C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517EF6F7-5794-442D-9475-CAD9AA14699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30345" yWindow="5070" windowWidth="26640" windowHeight="14940" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,9 +85,6 @@
     <t>MACHINE GUN</t>
   </si>
   <si>
-    <t>CAHINSAW</t>
-  </si>
-  <si>
     <t>SPACE LASER</t>
   </si>
   <si>
@@ -529,6 +526,21 @@
   </si>
   <si>
     <t>10;10;60;2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOOTSPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAINSAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5;0;1.5;0</t>
+  </si>
+  <si>
+    <t>1.5;0;1.5;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,18 +595,18 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -609,6 +621,20 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -922,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -937,21 +963,21 @@
     <col min="6" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -963,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -975,19 +1001,22 @@
         <v>5</v>
       </c>
       <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -998,28 +1027,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1030,28 +1059,28 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>300</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1062,28 +1091,28 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>2000</v>
       </c>
       <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
       <c r="I4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" t="s">
         <v>128</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>129</v>
       </c>
-      <c r="M4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1094,25 +1123,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>5000</v>
       </c>
       <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
       <c r="I5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1123,25 +1152,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>4000</v>
       </c>
       <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
       <c r="M6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1152,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>7500</v>
       </c>
       <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1181,347 +1210,356 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>11000</v>
       </c>
       <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>5000</v>
       </c>
       <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>10000</v>
       </c>
       <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" t="s">
         <v>52</v>
       </c>
-      <c r="I10" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>20000</v>
       </c>
       <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
         <v>54</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s">
         <v>55</v>
       </c>
-      <c r="I11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>7000</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
         <v>57</v>
       </c>
-      <c r="I12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>30000</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
         <v>59</v>
       </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>2000</v>
       </c>
       <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s">
         <v>61</v>
       </c>
-      <c r="O15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
-      </c>
-      <c r="P16" t="b">
+        <v>140</v>
+      </c>
+      <c r="Q16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>4000</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" t="s">
         <v>63</v>
       </c>
-      <c r="K17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>6000</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
         <v>65</v>
       </c>
-      <c r="M18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19">
         <v>8000</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>5000</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" t="s">
         <v>68</v>
       </c>
-      <c r="K20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>3000</v>
       </c>
-      <c r="N21" t="s">
-        <v>70</v>
+      <c r="O21" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:P21">
+  <conditionalFormatting sqref="F2:Q21">
+    <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text=";0;">
+      <formula>ISERROR(SEARCH(";0;",F2))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=";0;">
       <formula>NOT(ISERROR(SEARCH(";0;",F2)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text=";0;">
-      <formula>ISERROR(SEARCH(";0;",F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,30 +1578,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1586,7 +1624,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1609,7 +1647,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1632,7 +1670,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -1655,7 +1693,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1678,7 +1716,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -1701,7 +1739,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -1724,7 +1762,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -1747,7 +1785,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>270</v>
@@ -1789,37 +1827,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" t="s">
-        <v>119</v>
-      </c>
       <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
         <v>123</v>
-      </c>
-      <c r="K1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1827,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1856,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1876,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1899,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1933,7 +1971,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="str">
         <f>Enemy!A2</f>
@@ -1972,7 +2010,7 @@
         <v>ROBOT</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517EF6F7-5794-442D-9475-CAD9AA14699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2670637C-F632-4FD1-A756-CA5F2112C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30345" yWindow="5070" windowWidth="26640" windowHeight="14940" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28020" yWindow="4695" windowWidth="26640" windowHeight="14940" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -529,10 +529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SHOOTSPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHAINSAW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,6 +537,10 @@
   </si>
   <si>
     <t>1.5;0;1.5;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELAY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +951,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I18" sqref="B18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
         <v>18</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
         <v>65</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2670637C-F632-4FD1-A756-CA5F2112C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00384067-7B1F-4C93-9806-2C4A8BF54ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="4695" windowWidth="26640" windowHeight="14940" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-27450" yWindow="5250" windowWidth="26640" windowHeight="14940" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,9 +156,6 @@
     <t>7;1;15;500</t>
   </si>
   <si>
-    <t>16;1;22;700</t>
-  </si>
-  <si>
     <t>25;5;70;450</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>20;5;100;1200</t>
   </si>
   <si>
-    <t>6;1;4;2500</t>
-  </si>
-  <si>
     <t>1;0.5;9;1800</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>5;2.5;15;2200</t>
   </si>
   <si>
-    <t>2.4;0.05;2.6;6000</t>
-  </si>
-  <si>
     <t>0.8;0.025;1.1;4000</t>
   </si>
   <si>
@@ -265,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200;25;500;5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3;0.5;5;1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6;0;6;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,6 +524,66 @@
   </si>
   <si>
     <t>DELAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;0;0.5;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;0.4;3.6;1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;0;2;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5;0;1.5;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;0;4;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0.25;4;1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;0;6;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50;0;50;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;0;4;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoreload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30;5;45;2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;0.5;11;700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.48;0.01;0.52;6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;15;280;5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,6 +591,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,15 +633,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -621,20 +670,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -948,75 +983,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="B18:I18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="15" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="15" width="15.75" customWidth="1"/>
+    <col min="16" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1027,28 +1072,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1059,28 +1104,28 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>300</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1091,28 +1136,34 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>2000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="K4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1123,25 +1174,28 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>5000</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1152,25 +1206,31 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>4000</v>
       </c>
-      <c r="F6" t="s">
-        <v>39</v>
+      <c r="H6" t="s">
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="K6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1181,25 +1241,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>7500</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
         <v>41</v>
       </c>
-      <c r="I7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1210,86 +1273,92 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>11000</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>5000</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>10000</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1300,28 +1369,31 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>20000</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1332,25 +1404,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>7000</v>
       </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
       <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1361,28 +1433,31 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>30000</v>
       </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1393,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>2000</v>
       </c>
-      <c r="K15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1416,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
-      <c r="I16" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q16" t="b">
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="S16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1439,22 +1514,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>4000</v>
       </c>
-      <c r="I17" t="s">
-        <v>137</v>
-      </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1465,25 +1540,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>6000</v>
       </c>
-      <c r="I18" t="s">
-        <v>138</v>
-      </c>
       <c r="J18" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1494,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>8000</v>
       </c>
-      <c r="I19" t="s">
-        <v>139</v>
-      </c>
       <c r="J19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="K19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1517,22 +1592,25 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>5000</v>
       </c>
-      <c r="I20" t="s">
-        <v>141</v>
+      <c r="G20" t="b">
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1543,23 +1621,23 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>3000</v>
       </c>
-      <c r="O21" t="s">
-        <v>69</v>
+      <c r="Q21" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:Q21">
-    <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text=";0;">
-      <formula>ISERROR(SEARCH(";0;",F2))</formula>
+  <conditionalFormatting sqref="H2:S21">
+    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text=";0;">
+      <formula>ISERROR(SEARCH(";0;",H2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=";0;">
-      <formula>NOT(ISERROR(SEARCH(";0;",F2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=";0;">
+      <formula>NOT(ISERROR(SEARCH(";0;",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,40 +1646,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CFB178-60C6-42BA-9A7C-03EB8A68EE9C}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1610,13 +1691,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -1624,22 +1705,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -1647,22 +1728,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -1670,22 +1751,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G5">
         <v>60</v>
@@ -1693,13 +1774,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -1708,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>150</v>
@@ -1716,10 +1797,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1728,10 +1809,10 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>130</v>
@@ -1739,22 +1820,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>180</v>
@@ -1762,22 +1843,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -1785,26 +1866,29 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B10">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
         <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>1000</v>
       </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1827,37 +1911,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" t="s">
-        <v>122</v>
-      </c>
       <c r="K1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1865,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1894,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1914,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1937,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1971,7 +2055,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" t="str">
         <f>Enemy!A2</f>
@@ -2010,7 +2094,7 @@
         <v>ROBOT</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00384067-7B1F-4C93-9806-2C4A8BF54ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D453809-254E-469B-B9DB-006DFC190A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27450" yWindow="5250" windowWidth="26640" windowHeight="14940" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FLAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.5;0;1.5;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,10 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30;5;45;2500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,6 +584,10 @@
   </si>
   <si>
     <t>100;15;280;5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,21 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -986,7 +1004,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1019,46 +1037,46 @@
         <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="P1" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1077,19 +1095,19 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1109,19 +1127,19 @@
       <c r="E3">
         <v>300</v>
       </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1144,23 +1162,23 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" t="s">
         <v>153</v>
       </c>
-      <c r="O4" t="s">
-        <v>145</v>
+      <c r="N4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1179,19 +1197,19 @@
       <c r="E5">
         <v>5000</v>
       </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1211,22 +1229,22 @@
       <c r="E6">
         <v>4000</v>
       </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" t="s">
-        <v>144</v>
-      </c>
-      <c r="O6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1246,20 +1264,20 @@
       <c r="E7">
         <v>7500</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
       <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" t="s">
         <v>125</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
         <v>42</v>
+      </c>
+      <c r="S7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1278,19 +1296,19 @@
       <c r="E8">
         <v>11000</v>
       </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1313,16 +1331,16 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>46</v>
       </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1342,19 +1360,19 @@
       <c r="E10">
         <v>10000</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>48</v>
       </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" t="s">
         <v>49</v>
       </c>
-      <c r="P10" t="s">
+      <c r="O10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1374,22 +1392,22 @@
       <c r="E11">
         <v>20000</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>51</v>
       </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
       <c r="J11" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" t="s">
         <v>53</v>
       </c>
-      <c r="P11" t="s">
+      <c r="O11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1409,16 +1427,16 @@
       <c r="E12">
         <v>7000</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1438,22 +1456,22 @@
       <c r="E13">
         <v>30000</v>
       </c>
+      <c r="G13" t="s">
+        <v>155</v>
+      </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
-      </c>
-      <c r="L13" t="s">
         <v>56</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1473,10 +1491,10 @@
       <c r="E15">
         <v>2000</v>
       </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
         <v>57</v>
       </c>
-      <c r="R15" t="s">
+      <c r="Q15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1496,14 +1514,14 @@
       <c r="E16">
         <v>2000</v>
       </c>
-      <c r="K16" t="s">
+      <c r="J16" t="s">
         <v>135</v>
       </c>
-      <c r="S16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1519,17 +1537,17 @@
       <c r="E17">
         <v>4000</v>
       </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
       <c r="J17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" t="s">
         <v>132</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1545,20 +1563,20 @@
       <c r="E18">
         <v>6000</v>
       </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
       <c r="J18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" t="s">
         <v>133</v>
       </c>
+      <c r="N18" t="s">
+        <v>62</v>
+      </c>
       <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1574,14 +1592,14 @@
       <c r="E19">
         <v>8000</v>
       </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
       <c r="J19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1597,20 +1615,20 @@
       <c r="E20">
         <v>5000</v>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
+      <c r="I20" t="s">
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" t="s">
         <v>136</v>
       </c>
-      <c r="M20" t="s">
+      <c r="L20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1626,18 +1644,18 @@
       <c r="E21">
         <v>3000</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="P21" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:S21">
-    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text=";0;">
-      <formula>ISERROR(SEARCH(";0;",H2))</formula>
+  <conditionalFormatting sqref="G2:S21">
+    <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text=";0;">
+      <formula>ISERROR(SEARCH(";0;",G2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=";0;">
-      <formula>NOT(ISERROR(SEARCH(";0;",H2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=";0;">
+      <formula>NOT(ISERROR(SEARCH(";0;",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D453809-254E-469B-B9DB-006DFC190A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9822F162-0C87-47BA-B8D2-9262572E6E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27450" yWindow="5250" windowWidth="26640" windowHeight="14940" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="167">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,9 +177,6 @@
     <t>0.03;0.01;0.15;800</t>
   </si>
   <si>
-    <t>5;1;15;400</t>
-  </si>
-  <si>
     <t>40;10;200;1000</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>0.6;0.05;1;9000</t>
   </si>
   <si>
-    <t>30;5;50;9000</t>
-  </si>
-  <si>
     <t>-10;5;20;1500</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>90;10;170;2000</t>
   </si>
   <si>
-    <t>0.8;0.2;2;2000</t>
-  </si>
-  <si>
     <t>3;1;7;3000</t>
   </si>
   <si>
@@ -528,6 +519,9 @@
   </si>
   <si>
     <t>0.5;0;0.5;0</t>
+  </si>
+  <si>
+    <t>0.5;0;0.5;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,6 +582,54 @@
   </si>
   <si>
     <t>0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;0.1;1.5;400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8;0;0.8;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200;0;200;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170;0;170;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;1;10;2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;1;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1;0;0.1;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3;0;0.3;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9;1.5;15;9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;0;5;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;0;8;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +690,21 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1001,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1020,24 +1076,24 @@
     <col min="16" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
       <c r="F1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1058,28 +1114,31 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>140</v>
-      </c>
       <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1090,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1102,16 +1161,19 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1122,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>300</v>
@@ -1134,16 +1196,19 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" t="s">
         <v>122</v>
-      </c>
-      <c r="J3" t="s">
-        <v>125</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1154,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>2000</v>
@@ -1166,22 +1231,25 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1192,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>5000</v>
@@ -1204,16 +1272,19 @@
         <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1224,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>4000</v>
@@ -1233,22 +1304,25 @@
         <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="L6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1259,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>7500</v>
@@ -1271,16 +1345,22 @@
         <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>166</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="N7" t="s">
+        <v>161</v>
+      </c>
+      <c r="T7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1291,39 +1371,42 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>11000</v>
       </c>
       <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s">
         <v>44</v>
       </c>
-      <c r="I8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>5000</v>
@@ -1332,51 +1415,60 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="L9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>10000</v>
       </c>
       <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s">
         <v>48</v>
       </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1387,31 +1479,34 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>20000</v>
       </c>
       <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
-        <v>149</v>
-      </c>
-      <c r="J11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
       <c r="L11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="N11" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1422,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12">
         <v>7000</v>
@@ -1431,16 +1526,22 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1451,31 +1552,34 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>30000</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1486,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>2000</v>
       </c>
-      <c r="L15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1509,19 +1613,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
-      </c>
-      <c r="R16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="M16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1532,22 +1639,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>4000</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1558,25 +1665,34 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>6000</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="s">
+        <v>158</v>
       </c>
       <c r="N18" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1587,19 +1703,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <v>8000</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="M19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1610,25 +1729,28 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>5000</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
-      </c>
-      <c r="S20" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1639,18 +1761,18 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E21">
         <v>3000</v>
       </c>
-      <c r="P21" t="s">
-        <v>66</v>
+      <c r="Q21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:S21">
+  <conditionalFormatting sqref="G2:T21">
     <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text=";0;">
       <formula>ISERROR(SEARCH(";0;",G2))</formula>
     </cfRule>
@@ -1677,30 +1799,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1723,7 +1845,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1746,7 +1868,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1769,7 +1891,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -1792,7 +1914,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1815,7 +1937,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>37</v>
@@ -1838,7 +1960,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>147</v>
@@ -1861,7 +1983,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -1884,7 +2006,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>267</v>
@@ -1929,37 +2051,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>114</v>
-      </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1967,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1996,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2016,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2039,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2073,7 +2195,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" t="str">
         <f>Enemy!A2</f>
@@ -2112,7 +2234,7 @@
         <v>ROBOT</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9822F162-0C87-47BA-B8D2-9262572E6E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8883B417-F38E-45BE-83CD-40868622F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27450" yWindow="5250" windowWidth="26640" windowHeight="14940" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-19575" yWindow="6195" windowWidth="16710" windowHeight="10965" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="168">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +630,10 @@
   </si>
   <si>
     <t>8;0;8;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;0;100;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1071,7 +1075,7 @@
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="15" width="15.75" customWidth="1"/>
     <col min="16" max="16" width="16.125" customWidth="1"/>
   </cols>
@@ -1341,6 +1345,9 @@
       <c r="G7" t="s">
         <v>40</v>
       </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
       <c r="I7" t="s">
         <v>41</v>
       </c>
@@ -1417,6 +1424,9 @@
       <c r="G9" t="s">
         <v>45</v>
       </c>
+      <c r="H9" t="s">
+        <v>167</v>
+      </c>
       <c r="I9" t="s">
         <v>46</v>
       </c>
@@ -1449,6 +1459,9 @@
       <c r="G10" t="s">
         <v>47</v>
       </c>
+      <c r="H10" t="s">
+        <v>167</v>
+      </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
@@ -1487,6 +1500,9 @@
       <c r="G11" t="s">
         <v>50</v>
       </c>
+      <c r="H11" t="s">
+        <v>167</v>
+      </c>
       <c r="I11" t="s">
         <v>147</v>
       </c>
@@ -1525,6 +1541,9 @@
       <c r="G12" t="s">
         <v>39</v>
       </c>
+      <c r="H12" t="s">
+        <v>167</v>
+      </c>
       <c r="I12" t="s">
         <v>53</v>
       </c>
@@ -1595,6 +1614,9 @@
       <c r="E15">
         <v>2000</v>
       </c>
+      <c r="H15" t="s">
+        <v>167</v>
+      </c>
       <c r="M15" t="s">
         <v>55</v>
       </c>
@@ -1618,6 +1640,9 @@
       <c r="E16">
         <v>2000</v>
       </c>
+      <c r="H16" t="s">
+        <v>167</v>
+      </c>
       <c r="J16" t="s">
         <v>132</v>
       </c>
@@ -1644,6 +1669,9 @@
       <c r="E17">
         <v>4000</v>
       </c>
+      <c r="H17" t="s">
+        <v>167</v>
+      </c>
       <c r="I17" t="s">
         <v>57</v>
       </c>
@@ -1708,6 +1736,9 @@
       <c r="E19">
         <v>8000</v>
       </c>
+      <c r="H19" t="s">
+        <v>167</v>
+      </c>
       <c r="I19" t="s">
         <v>60</v>
       </c>
@@ -1733,6 +1764,9 @@
       </c>
       <c r="E20">
         <v>5000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>167</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
@@ -1788,13 +1822,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CFB178-60C6-42BA-9A7C-03EB8A68EE9C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1834,7 +1868,7 @@
         <v>3.5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1.5</v>
@@ -1857,7 +1891,7 @@
         <v>3.5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1880,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F4">
         <v>17</v>
@@ -1903,7 +1937,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -1949,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1972,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -1995,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F9">
         <v>27</v>
@@ -2018,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>10</v>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8883B417-F38E-45BE-83CD-40868622F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A61E8-C6A6-4D41-9971-21BE0FF059CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="6195" windowWidth="16710" windowHeight="10965" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="181">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10;10;60;2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHAINSAW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,6 +630,60 @@
   </si>
   <si>
     <t>100;0;100;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUMAN</t>
+  </si>
+  <si>
+    <t>HUMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METAL</t>
+  </si>
+  <si>
+    <t>METAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50;50;300;2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,49 +744,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1061,26 +1069,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="15" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="15" width="15.75" customWidth="1"/>
     <col min="16" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1097,52 +1106,55 @@
         <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
-        <v>163</v>
-      </c>
       <c r="N1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
-        <v>137</v>
-      </c>
       <c r="Q1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1159,25 +1171,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>119</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>126</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1194,25 +1209,28 @@
         <v>300</v>
       </c>
       <c r="G3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>119</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>122</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1232,28 +1250,31 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
         <v>139</v>
       </c>
-      <c r="I4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>120</v>
       </c>
-      <c r="K4" t="s">
-        <v>151</v>
-      </c>
       <c r="L4" t="s">
-        <v>138</v>
-      </c>
-      <c r="O4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="M4" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1270,25 +1291,28 @@
         <v>5000</v>
       </c>
       <c r="G5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
-        <v>141</v>
-      </c>
       <c r="J5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" t="s">
         <v>124</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>37</v>
       </c>
-      <c r="L5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1305,28 +1329,31 @@
         <v>4000</v>
       </c>
       <c r="G6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
-        <v>139</v>
-      </c>
       <c r="I6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" t="s">
         <v>123</v>
       </c>
-      <c r="K6" t="s">
-        <v>143</v>
-      </c>
       <c r="L6" t="s">
-        <v>139</v>
-      </c>
-      <c r="O6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1343,31 +1370,34 @@
         <v>7500</v>
       </c>
       <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" t="s">
-        <v>167</v>
-      </c>
       <c r="I7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>122</v>
       </c>
-      <c r="K7" t="s">
-        <v>166</v>
-      </c>
       <c r="L7" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" t="s">
-        <v>161</v>
-      </c>
-      <c r="T7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>160</v>
+      </c>
+      <c r="U7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1384,30 +1414,33 @@
         <v>11000</v>
       </c>
       <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" t="s">
-        <v>146</v>
-      </c>
       <c r="J8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" t="s">
         <v>124</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1422,25 +1455,28 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
-        <v>167</v>
-      </c>
       <c r="I9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" t="s">
         <v>46</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>125</v>
       </c>
-      <c r="K9" t="s">
-        <v>150</v>
-      </c>
       <c r="L9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1457,31 +1493,34 @@
         <v>10000</v>
       </c>
       <c r="G10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>167</v>
-      </c>
       <c r="I10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>126</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>48</v>
       </c>
-      <c r="L10" t="s">
-        <v>165</v>
-      </c>
-      <c r="N10" t="s">
-        <v>162</v>
-      </c>
-      <c r="P10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>164</v>
+      </c>
+      <c r="O10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1498,31 +1537,34 @@
         <v>20000</v>
       </c>
       <c r="G11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
-        <v>167</v>
-      </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="J11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s">
         <v>126</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>51</v>
       </c>
-      <c r="L11" t="s">
-        <v>164</v>
-      </c>
-      <c r="N11" t="s">
-        <v>160</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="M11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1539,28 +1581,31 @@
         <v>7000</v>
       </c>
       <c r="G12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
-        <v>167</v>
-      </c>
       <c r="I12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" t="s">
         <v>53</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>128</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" t="s">
-        <v>147</v>
-      </c>
-      <c r="N12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1577,28 +1622,31 @@
         <v>30000</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H13" t="s">
         <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
         <v>125</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>54</v>
       </c>
-      <c r="L13" t="s">
-        <v>156</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="M13" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1614,17 +1662,17 @@
       <c r="E15">
         <v>2000</v>
       </c>
-      <c r="H15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N15" t="s">
         <v>55</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1640,20 +1688,23 @@
       <c r="E16">
         <v>2000</v>
       </c>
-      <c r="H16" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
         <v>132</v>
       </c>
-      <c r="M16" t="s">
-        <v>157</v>
-      </c>
-      <c r="S16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="T16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1669,20 +1720,26 @@
       <c r="E17">
         <v>4000</v>
       </c>
-      <c r="H17" t="s">
-        <v>167</v>
+      <c r="G17" t="s">
+        <v>175</v>
       </c>
       <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
         <v>57</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>129</v>
       </c>
       <c r="M17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1698,29 +1755,32 @@
       <c r="E18">
         <v>6000</v>
       </c>
-      <c r="I18" t="s">
-        <v>159</v>
+      <c r="G18" t="s">
+        <v>174</v>
       </c>
       <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
         <v>130</v>
       </c>
-      <c r="L18" t="s">
-        <v>165</v>
-      </c>
       <c r="M18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" t="s">
         <v>59</v>
       </c>
-      <c r="P18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1736,20 +1796,26 @@
       <c r="E19">
         <v>8000</v>
       </c>
-      <c r="H19" t="s">
-        <v>167</v>
+      <c r="G19" t="s">
+        <v>176</v>
       </c>
       <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
         <v>60</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>131</v>
       </c>
       <c r="M19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1765,26 +1831,29 @@
       <c r="E20">
         <v>5000</v>
       </c>
-      <c r="H20" t="s">
-        <v>167</v>
+      <c r="G20" t="s">
+        <v>177</v>
       </c>
       <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
         <v>61</v>
       </c>
-      <c r="J20" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" t="s">
-        <v>156</v>
+      <c r="K20" t="s">
+        <v>180</v>
       </c>
       <c r="M20" t="s">
+        <v>155</v>
+      </c>
+      <c r="N20" t="s">
         <v>62</v>
       </c>
-      <c r="T20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1800,18 +1869,18 @@
       <c r="E21">
         <v>3000</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:T21">
-    <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text=";0;">
-      <formula>ISERROR(SEARCH(";0;",G2))</formula>
+  <conditionalFormatting sqref="H2:U21">
+    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text=";0;">
+      <formula>ISERROR(SEARCH(";0;",H2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=";0;">
-      <formula>NOT(ISERROR(SEARCH(";0;",G2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=";0;">
+      <formula>NOT(ISERROR(SEARCH(";0;",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1820,244 +1889,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CFB178-60C6-42BA-9A7C-03EB8A68EE9C}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
       <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3.5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>73</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>18</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>100</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7">
         <v>37</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8">
         <v>147</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7.5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>27</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10">
         <v>267</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>15</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1000</v>
       </c>
     </row>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A61E8-C6A6-4D41-9971-21BE0FF059CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDDB5C3-D488-4239-8873-5B29F65161AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="181">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1668,6 +1668,9 @@
       <c r="N15" t="s">
         <v>55</v>
       </c>
+      <c r="O15" t="s">
+        <v>161</v>
+      </c>
       <c r="S15" t="s">
         <v>56</v>
       </c>
@@ -1699,6 +1702,9 @@
       </c>
       <c r="N16" t="s">
         <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>161</v>
       </c>
       <c r="T16" t="s">
         <v>153</v>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Storm The House\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDDB5C3-D488-4239-8873-5B29F65161AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B04B0AA-4F1E-4577-B9D1-0DE736168A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="182">
   <si>
     <t>AMMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,10 @@
   </si>
   <si>
     <t>50;50;300;2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOWNABLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D884F8-0FD5-40CA-AEA1-09465B4050E8}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1895,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CFB178-60C6-42BA-9A7C-03EB8A68EE9C}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1909,7 +1913,7 @@
     <col min="7" max="7" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1934,8 +1938,11 @@
       <c r="H1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1960,8 +1967,11 @@
       <c r="H2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1986,8 +1996,11 @@
       <c r="H3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2012,8 +2025,11 @@
       <c r="H4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -2038,8 +2054,11 @@
       <c r="H5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2064,8 +2083,11 @@
       <c r="H6">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -2090,8 +2112,11 @@
       <c r="H7">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -2116,8 +2141,11 @@
       <c r="H8">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2142,8 +2170,11 @@
       <c r="H9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -2167,6 +2198,9 @@
       </c>
       <c r="H10">
         <v>1000</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
